--- a/artifacts.xlsx
+++ b/artifacts.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbiepopa/Documents/CARPP-BETTA_ERP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19120" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Ax</t>
   </si>
@@ -69,13 +69,22 @@
   </si>
   <si>
     <t>DT</t>
+  </si>
+  <si>
+    <t>Group Across Tasks</t>
+  </si>
+  <si>
+    <t>Task Across Groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,16 +92,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,15 +151,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,172 +476,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="J2" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="K2" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.223</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.188</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.223</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.10299999999999999</v>
-      </c>
+      <c r="J6" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.154</v>
+      </c>
+      <c r="Q6" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>